--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed2/result_data_RandomForest.xlsx
@@ -480,7 +480,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.596899999999996</v>
+        <v>-8.465899999999994</v>
       </c>
     </row>
     <row r="4">
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.557999999999996</v>
+        <v>-8.395499999999997</v>
       </c>
     </row>
     <row r="22">
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.224799999999998</v>
+        <v>-8.083699999999997</v>
       </c>
     </row>
     <row r="24">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.449399999999996</v>
+        <v>-7.346799999999995</v>
       </c>
     </row>
     <row r="26">
@@ -1180,7 +1180,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.121899999999997</v>
+        <v>-8.076899999999997</v>
       </c>
     </row>
     <row r="54">
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.123899999999997</v>
+        <v>-8.298699999999995</v>
       </c>
     </row>
     <row r="58">
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.343199999999994</v>
+        <v>-8.221099999999993</v>
       </c>
     </row>
     <row r="60">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.319199999999996</v>
+        <v>-7.331499999999997</v>
       </c>
     </row>
     <row r="70">
@@ -1544,7 +1544,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.256900000000003</v>
+        <v>-7.306200000000009</v>
       </c>
     </row>
     <row r="80">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.087299999999999</v>
+        <v>-9.164699999999996</v>
       </c>
     </row>
     <row r="84">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.115899999999991</v>
+        <v>-7.068199999999993</v>
       </c>
     </row>
     <row r="94">
